--- a/ProtoConfig/数据库设计.xlsx
+++ b/ProtoConfig/数据库设计.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2255" uniqueCount="1018">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2246" uniqueCount="1015">
   <si>
     <t>#说明用#开头,表名使用t_开头,t_开头的下一列为表中文名  表名后面加#数据库索引,可以用不同连接库</t>
   </si>
@@ -3282,52 +3282,43 @@
     <t>版本信息</t>
   </si>
   <si>
+    <t>Platform</t>
+  </si>
+  <si>
+    <t>平台 Android/IOS</t>
+  </si>
+  <si>
     <t>AppVersion</t>
   </si>
   <si>
+    <t>资源版本号</t>
+  </si>
+  <si>
+    <t>IsForcedUpdate</t>
+  </si>
+  <si>
+    <t>是否强制更新</t>
+  </si>
+  <si>
+    <t>AppDownloadURL</t>
+  </si>
+  <si>
+    <t>强更包地址</t>
+  </si>
+  <si>
+    <t>ResURL</t>
+  </si>
+  <si>
+    <t>资源下载地址</t>
+  </si>
+  <si>
+    <t>t_TNotice</t>
+  </si>
+  <si>
+    <t>公告信息</t>
+  </si>
+  <si>
     <t>客户端版本</t>
-  </si>
-  <si>
-    <t>ResVersion</t>
-  </si>
-  <si>
-    <t>资源版本号</t>
-  </si>
-  <si>
-    <t>Platform</t>
-  </si>
-  <si>
-    <t>平台 Android/IOS</t>
-  </si>
-  <si>
-    <t>IsForcedUpdate</t>
-  </si>
-  <si>
-    <t>是否强制更新</t>
-  </si>
-  <si>
-    <t>ApkState</t>
-  </si>
-  <si>
-    <t>包状态 0正常 1审核</t>
-  </si>
-  <si>
-    <t>ResURL</t>
-  </si>
-  <si>
-    <t>资源下载地址</t>
-  </si>
-  <si>
-    <t>AppDownloadURL</t>
-  </si>
-  <si>
-    <t>强更包地址</t>
-  </si>
-  <si>
-    <t>t_TNotice</t>
-  </si>
-  <si>
-    <t>公告信息</t>
   </si>
   <si>
     <t>TipTxt</t>
@@ -3349,8 +3340,8 @@
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -3362,14 +3353,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3391,7 +3382,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3404,8 +3395,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3413,7 +3405,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3474,6 +3466,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -3482,24 +3489,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3514,13 +3505,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3538,91 +3661,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3634,67 +3679,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3732,16 +3723,25 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -3771,6 +3771,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -3778,30 +3793,6 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3816,7 +3807,7 @@
     <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3825,16 +3816,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3846,10 +3837,10 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3864,79 +3855,28 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3945,13 +3885,64 @@
     <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -26722,7 +26713,7 @@
   <dimension ref="A1:C32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -26811,7 +26802,7 @@
         <v>995</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" ht="19" customHeight="1" spans="1:2">
       <c r="A13" t="s">
         <v>996</v>
       </c>
@@ -26821,91 +26812,64 @@
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>5</v>
+        <v>998</v>
       </c>
       <c r="B14" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C14" t="s">
-        <v>239</v>
+        <v>999</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>998</v>
+        <v>1000</v>
       </c>
       <c r="B15" t="s">
         <v>12</v>
       </c>
       <c r="C15" t="s">
-        <v>999</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>1000</v>
+        <v>1002</v>
       </c>
       <c r="B16" t="s">
-        <v>9</v>
+        <v>34</v>
       </c>
       <c r="C16" t="s">
-        <v>1001</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>1002</v>
+        <v>1004</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C17" t="s">
-        <v>1003</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>1004</v>
+        <v>1006</v>
       </c>
       <c r="B18" t="s">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="C18" t="s">
-        <v>1005</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" t="s">
-        <v>1006</v>
-      </c>
-      <c r="B19" t="s">
-        <v>9</v>
-      </c>
-      <c r="C19" t="s">
         <v>1007</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
-      <c r="A20" t="s">
-        <v>1008</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C20" t="s">
-        <v>1009</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21" t="s">
-        <v>1010</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C21" t="s">
-        <v>1011</v>
-      </c>
+    <row r="20" spans="2:2">
+      <c r="B20" s="1"/>
+    </row>
+    <row r="21" spans="2:2">
+      <c r="B21" s="1"/>
     </row>
     <row r="22" spans="2:2">
       <c r="B22" s="1"/>
@@ -26918,10 +26882,10 @@
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>1012</v>
+        <v>1008</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>1013</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -26937,46 +26901,46 @@
     </row>
     <row r="29" spans="1:3">
       <c r="A29" t="s">
-        <v>998</v>
+        <v>1000</v>
       </c>
       <c r="B29" t="s">
         <v>12</v>
       </c>
       <c r="C29" t="s">
-        <v>999</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" t="s">
-        <v>1002</v>
+        <v>998</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C30" t="s">
-        <v>1003</v>
+        <v>999</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" t="s">
-        <v>1014</v>
+        <v>1011</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C31" t="s">
-        <v>1015</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" t="s">
-        <v>1016</v>
+        <v>1013</v>
       </c>
       <c r="B32" t="s">
         <v>23</v>
       </c>
       <c r="C32" t="s">
-        <v>1017</v>
+        <v>1014</v>
       </c>
     </row>
   </sheetData>

--- a/ProtoConfig/数据库设计.xlsx
+++ b/ProtoConfig/数据库设计.xlsx
@@ -3270,10 +3270,16 @@
     <t>服务器名称</t>
   </si>
   <si>
-    <t>URL</t>
-  </si>
-  <si>
-    <t>服务器对应登录地址</t>
+    <t>IP</t>
+  </si>
+  <si>
+    <t>服务器对应登录IP</t>
+  </si>
+  <si>
+    <t>Port</t>
+  </si>
+  <si>
+    <t>服务器对应登录端口</t>
   </si>
   <si>
     <t>t_TVersion</t>
@@ -3304,12 +3310,6 @@
   </si>
   <si>
     <t>强更包地址</t>
-  </si>
-  <si>
-    <t>ResURL</t>
-  </si>
-  <si>
-    <t>资源下载地址</t>
   </si>
   <si>
     <t>t_TNotice</t>
@@ -3338,8 +3338,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -3353,36 +3353,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3403,9 +3374,30 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3427,10 +3419,11 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3466,8 +3459,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3481,9 +3475,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3495,6 +3488,13 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -3502,6 +3502,42 @@
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -3523,49 +3559,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3583,7 +3577,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3595,7 +3589,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3607,31 +3649,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3643,49 +3679,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3716,33 +3716,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3771,6 +3749,30 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -3788,11 +3790,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3804,10 +3804,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3816,34 +3816,37 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3852,97 +3855,94 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -26713,7 +26713,7 @@
   <dimension ref="A1:C32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -26802,66 +26802,66 @@
         <v>995</v>
       </c>
     </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
+        <v>996</v>
+      </c>
+      <c r="B9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" t="s">
+        <v>997</v>
+      </c>
+    </row>
     <row r="13" ht="19" customHeight="1" spans="1:2">
       <c r="A13" t="s">
-        <v>996</v>
+        <v>998</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>997</v>
+        <v>999</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>998</v>
+        <v>1000</v>
       </c>
       <c r="B14" t="s">
         <v>12</v>
       </c>
       <c r="C14" t="s">
-        <v>999</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>1000</v>
+        <v>1002</v>
       </c>
       <c r="B15" t="s">
         <v>12</v>
       </c>
       <c r="C15" t="s">
-        <v>1001</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>1002</v>
+        <v>1004</v>
       </c>
       <c r="B16" t="s">
         <v>34</v>
       </c>
       <c r="C16" t="s">
-        <v>1003</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>1004</v>
+        <v>1006</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C17" t="s">
-        <v>1005</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" t="s">
-        <v>1006</v>
-      </c>
-      <c r="B18" t="s">
-        <v>12</v>
-      </c>
-      <c r="C18" t="s">
         <v>1007</v>
       </c>
     </row>
@@ -26901,7 +26901,7 @@
     </row>
     <row r="29" spans="1:3">
       <c r="A29" t="s">
-        <v>1000</v>
+        <v>1002</v>
       </c>
       <c r="B29" t="s">
         <v>12</v>
@@ -26912,13 +26912,13 @@
     </row>
     <row r="30" spans="1:3">
       <c r="A30" t="s">
-        <v>998</v>
+        <v>1000</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C30" t="s">
-        <v>999</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="31" spans="1:3">
